--- a/Practica 1/Datos.xlsx
+++ b/Practica 1/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LABS\IA\Lab\Lab_IA\Practica 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD1F96-DC9F-45CC-97A0-958CCE5CDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AACDE3-3A93-4512-80D8-CD6CEAF6F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{EFEC47A5-508A-4B4D-98BB-78179C243223}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFEC47A5-508A-4B4D-98BB-78179C243223}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,14 +43,14 @@
     <t>Nacimiento</t>
   </si>
   <si>
-    <t>08/09/1995</t>
+    <t>18/09/1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +414,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +432,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2807941500101</v>
+        <v>3306466721202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
